--- a/biology/Botanique/Alkanna_lutea/Alkanna_lutea.xlsx
+++ b/biology/Botanique/Alkanna_lutea/Alkanna_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orcanette jaune
 Alkanna lutea (lutea = jaune en latin) 
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nonea flavescens Fisch. &amp; C.A.Mey
 Nonea setosa (Lehm.) Roem. &amp; Schult
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle méditerranéenne de la famille des Boraginacées, l'une des rares représentantes du genre Alkanna en France. Ses fleurs sont petites, jaunes, à cinq pétales, elle est couverte d'une raide pilosité et pousse sur des coteaux pierreux du littoral méditerranéen : Pyrénées-Orientales, à Salces, Var, îles d'Hyères, Corse. 
 </t>
@@ -576,7 +592,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inscrite dans le livre rouge de la flore menacée de France par l'INPN - Inventaire National du Patrimoine Naturel, protégées en Provence-Alpes-Côte-d'Azur
 </t>
